--- a/해커톤/최종규격/미트_최종규격.xlsx
+++ b/해커톤/최종규격/미트_최종규격.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\최종규격\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\최종규격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF03FD1-C2AE-43C0-BE0B-6DF574D7BF7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE275475-B754-43A5-8517-7AE52D9F13D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3450" windowWidth="48240" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>썸네일</t>
   </si>
@@ -46,240 +46,6 @@
     <t>영상길이</t>
   </si>
   <si>
-    <t>눈물로 맞이한 01년생 1월1일 vlog🍻 /첫술/음주로그 [미트]</t>
-  </si>
-  <si>
-    <t>ENG) 연말&amp;신년 파티 메이크업✨ #글리터 [미트]</t>
-  </si>
-  <si>
-    <t>ENG) GRWM🏫 1년만에 고등학교 갈 준비 같이 해요! 모닝루틴/데일리 메이크업/겟레디윗미 [미트]</t>
-  </si>
-  <si>
-    <t>대환장 파티ㅋㅋㅋ 수능 끝난 고3은 학교에서 뭐하게요?🤣 일상/브이로그 [미트]</t>
-  </si>
-  <si>
-    <t>대학 붙은 담날 24시간 밀착 vlog🏠 [미트]</t>
-  </si>
-  <si>
-    <t>🎄산타가 되어 직접 선물을 전달합니다🎄[미트]</t>
-  </si>
-  <si>
-    <t>동아방송예술대 합격! 연극영화과&amp;방송연예과 입시 Q&amp;A🤔 연기학원/실기시험/예상질문/최저/수능/다이어트 [미트]</t>
-  </si>
-  <si>
-    <t>친구랑 경주 1박2일 기차여행 vlog🍁 황리단길 맛집🍴/첨성대/랑콩뜨레/안압지/불국사/게스트하우스 [미트]</t>
-  </si>
-  <si>
-    <t>고3 수능 10일전 vlog🏫 우리반 친구들 인터뷰/면접후기/면접꿀팁 [미트]</t>
-  </si>
-  <si>
-    <t>🔥2020학년도 대학수학능력평가 파이팅🔥 [미트]</t>
-  </si>
-  <si>
-    <t>할로윈 맞이 뱀파이어 메이크업💄 🎃Happy Halloween👻  [미트]</t>
-  </si>
-  <si>
-    <t>조퇴하고 뭐하게요? 매일 1교시 끝나면 집 가서 하는 일?🤔 하루 일상 vlog+구독자 이벤트💝 [미트]</t>
-  </si>
-  <si>
-    <t>핵고퀄 겨울옷 가득!! 미트마트 2차 하울⛄ 후드/슬랙스/자켓 [미트]</t>
-  </si>
-  <si>
-    <t>낼 모레 시험인지도 모르는 고3 현실 하루 일상 vlog🐹 급식/피부관리/스킨케어/실기준비/입시 [미트]</t>
-  </si>
-  <si>
-    <t>가족들과! 알차게 보낸 2019 추석 vlog🌰 다이어트/고기파티/고3/닭갈비/입시준비 [미트]</t>
-  </si>
-  <si>
-    <t>고3의 학교 안 간 날 vlog🐾 결석/노트북 개봉/실기준비/소이캔들/일상 [미트]</t>
-  </si>
-  <si>
-    <t>미트가 직접 준비한 마켓 오픈!! 🍁가성비 굳 가을 옷 가득🍁 미트마트 첫 하울/가을옷하울/가을코디/맨투맨 [미트]</t>
-  </si>
-  <si>
-    <t>영화관 차렸다!!🔥 학교 동아리 발표회 vlog+영화 NG미공개 영상 모음💜 영화동아리/급식먹방/팝콘먹방/고등학생 [미트]</t>
-  </si>
-  <si>
-    <t>고등학생 데일리 메이크업💛 인생템 소개/daily make up [미트]</t>
-  </si>
-  <si>
-    <t>청량미 가득 넘치는 가족여행 vlog🌊 바다/여름방학/인생짤/간월암/몽산포 해수욕장 [미트]</t>
-  </si>
-  <si>
-    <t>💚첫 만남 공지💚 구독자 30만 감사 인사/영자막러 구함 [미트]</t>
-  </si>
-  <si>
-    <t>마지막 방학! 고3의 여름방학 일상 vlog🍃 입시|실기준비|중국어|브이로그 [미트]</t>
-  </si>
-  <si>
-    <t>나에 대한 추측읽기🤔 카메라 밖의 실제 성격 공개📷/모솔? 남친? 욕?  [미트]</t>
-  </si>
-  <si>
-    <t>10대 유튜버 꼰이&amp;봄이와 데이트 vlog💖 망원동/해피인사이드 전시회/소품샵/용산/네네치킨[미트]</t>
-  </si>
-  <si>
-    <t>쇼핑몰 만원대 반팔&amp;하의 하울🍬 실패 없이 옷 사는 꿀팁/올드미키/미쳐라/핫텐/러블림/데이디데이 [미트]</t>
-  </si>
-  <si>
-    <t>꼬마커플 예영쓰와 홍대 데이트💓 사주&amp;타로/소품샵/피자몰/옷가게/쇼핑/카페 [미트]</t>
-  </si>
-  <si>
-    <t>화장품 단 4개로!! 🎨수채화 레드 메이크업❤ [미트]</t>
-  </si>
-  <si>
-    <t>마지막 시험 끝난 고3들의 텐션🔥 고등학교 일상 vlog🏫 급식먹방/꿀잼주의/영화동아리/여고생 [미트]</t>
-  </si>
-  <si>
-    <t>영화 동아리에서 만든 '마지막' 영화 보고 가세요!! 밤새서 편집 헉헉,, [미트]</t>
-  </si>
-  <si>
-    <t>비눗물로 지워도 OK! 리얼 워터프루프 메이크업💙 워터파크/waterproof [미트]</t>
-  </si>
-  <si>
-    <t>뒤죽박죽 옷장소개🙊 옷이 2배로 들어가는 옷장정리꿀팁👗 [미트]</t>
-  </si>
-  <si>
-    <t>과즙팡팡🍹 여름에 딱! 상큼한 🍊자몽 메이크업🍊 과즙상 메이크업/grape fruit make up/summer [미트]</t>
-  </si>
-  <si>
-    <t>19살, 처음으로! 혼자 당일치기 기차여행💺전주 vlog🌻기차 매진되고 난리/물방울떡/야시장/전주비빔밥/전주초코파이/자만벽화마을  [미트]</t>
-  </si>
-  <si>
-    <t>요청대폭주🔥 01년생 현실여고생의 혼잡한 방소개🦄 지금껏 못 올렸던 이유?/room tour [미트]</t>
-  </si>
-  <si>
-    <t>흰 티셔츠 일주일 돌려입기🌼 7가지 코디/A t-shirt look a week/look book  [미트]</t>
-  </si>
-  <si>
-    <t>리얼꿀잼보장💙고3의 마지막 체육대회 vlog💙 홍루이젠/계주/뒤풀이/동아리회식 [미트]</t>
-  </si>
-  <si>
-    <t>GRWM&amp;VLOG🌹 학교 졸업사진 찍으러 에버랜드로!?📷 친구들 꿀잼주의ㅋㅋㅋㅋ [미트]</t>
-  </si>
-  <si>
-    <t>애매한 날씨에 입기 딱! 좋은 코디추천 🍃초여름룩북🍃 초여름 코디/look book/early summer fashion[미트]</t>
-  </si>
-  <si>
-    <t>시험 끝난 고3 주말 일상 vlog🎥 /영화동아리/뿌링클/스튜디오 촬영/미용실/카페 [미트]</t>
-  </si>
-  <si>
-    <t>결정장애 다 모여!! 여름 샌들 추천!!🏖 샌들과 슬리퍼 모두 가능한 PUMA 라이트 샌들 4종 리뷰 💎 + 데일리 코디 추천 [미트]</t>
-  </si>
-  <si>
-    <t>eng)체육대회 필수! 인싸되는 아이템 6가지😎 하트선글라스/텔레토비헤어밴드/플랜카드 만드는법/컬러헤어핀 [미트]</t>
-  </si>
-  <si>
-    <t>engsub)땀흘려도 멀쩡한💙체육대회메이크업&amp;헤어스타일링💙 지속력짱/파워프루프/키라키라/도넛머리/봉고데기 [미트]</t>
-  </si>
-  <si>
-    <t>(eng sub) 구독자 20만 기념 나에게 주는 선물! 20만원어치 하울💸 행복해지는 러쉬/스텔라/3CE [미트]</t>
-  </si>
-  <si>
-    <t>(eng sub) 입는 순간 여신되는 💐블라우스&amp;원피스 하울💐 썸데이즈/제이블린/디데이걸/브로치 [미트]</t>
-  </si>
-  <si>
-    <t>(eng sub) 인스타 갬성 넘치는 3CE 당근🥕 메이크업 _3CE nude kit/make up [미트]</t>
-  </si>
-  <si>
-    <t>벚꽃과 함께한 🌸봄룩북🌸 나들이 갈 때 입기좋은 봄옷🌹 / 봄코디 / Spring LookBook [미트]</t>
-  </si>
-  <si>
-    <t>3CE 10주년 파티에 초대받아서 크러쉬도 보고 선물까지💝 3CE 10th anniversary party vlog [미트]</t>
-  </si>
-  <si>
-    <t>구독자 10만돌파 기념! 10만원으로 가족파티 vlog💝 코인노래방/몰카/오락실/선물 [미트]</t>
-  </si>
-  <si>
-    <t>학생유튜버 미트의 편집과정&amp;꿀팁📂 편집프로그램/어도비 프리미어프로 [미트]</t>
-  </si>
-  <si>
-    <t>푸짐! 다꾸용품 하울💝 인스/떡메모지/마스킹테이프/유댕닷컴/막찔러샵/꽃방구 [미트]</t>
-  </si>
-  <si>
-    <t>언니랑 신림  vlog🍬 귀뚫기/민증사진/루프탑카페추천/존맛디저트/카페마지카 [미트]</t>
-  </si>
-  <si>
-    <t>봄 맞이 신상들로 봄메이크업🌸 spring make up [미트]</t>
-  </si>
-  <si>
-    <t>첫 노래커버🎤 펑티모 신곡! 원기만만 커버 冯提莫 | 元气满满 [미트]</t>
-  </si>
-  <si>
-    <t>유튜버들과 롯데월드 갔다가 카메라 박살낸 날 vlog.. with. 김비오(관종대연), 소아린, 김원호(김주영) /틱톡커 [미트]</t>
-  </si>
-  <si>
-    <t>GRWM⏰ 3분만에 초고속 메이크업하고 학원가기ㅋㅋㅋ[미트]</t>
-  </si>
-  <si>
-    <t>한참 웃음ㅋㅋ 정말 신났던 파자마파티 vlog🎉 먹는 색종이/떡볶이/뿌링클 [미트]</t>
-  </si>
-  <si>
-    <t>구독자 10만 돌파 Q&amp;A! 남자친구? 수입? 악플? 다 알려드립니다🔥 [미트]</t>
-  </si>
-  <si>
-    <t>가볍고 자연스러운 메이크업🎀 학생 메이크업/natural make up/student make up [미트]</t>
-  </si>
-  <si>
-    <t>미트의 장비소개 및 촬영과정 전부 공개🎥 카메라/조명/마이크/삼각대 [미트]</t>
-  </si>
-  <si>
-    <t>최근 틱톡모음2탄😆 Tiktok [미트]</t>
-  </si>
-  <si>
-    <t>중학생, 고등학생은 어떤 화장품을 쓸까? 화장품 파우치 털기!! with. 아린🍭 Introduction to cosmetics in pouch [미트]</t>
-  </si>
-  <si>
-    <t>새학기 준비 같이해요! 뭐 챙기지? 새학기 가방추천/휠라가방/책가방추천 [미트]</t>
-  </si>
-  <si>
-    <t>✨100,000 subscriber✨ Greeting of thanks (4 languages : kor, eng, jp, china) [미트]</t>
-  </si>
-  <si>
-    <t>개꿀잼)가족들과 함께하는 설날 브이로그ㅋㅋㅋㅋ [미트]</t>
-  </si>
-  <si>
-    <t>하루종일 편집하는 방학 일상 vlog+구독자 이벤트🎉 [미트]</t>
-  </si>
-  <si>
-    <t>틱톡 테크닉 쉽게 하는법? 난 편집은 잘하지만 테크닉은 못하지.. 편집으로 만든 테크닉🤘 tiktok/틱톡커 [미트]</t>
-  </si>
-  <si>
-    <t>인기 쇼핑몰 겨울 패션 하울🎀 언니가간다/쇼퍼랜드/육육걸즈/겨울코디/겨울옷후기/Winter fashion haul [미트]</t>
-  </si>
-  <si>
-    <t>(ENG)GRWM🏫현실 여고생의 학교가기전 겟레디윗미/고데기하는법/학생메이크업/Get Ready With Me/모닝루틴 [미트]</t>
-  </si>
-  <si>
-    <t>아빠한테 남자친구랑 헤어졌다고 하고 펑펑 울었어요 [미트]</t>
-  </si>
-  <si>
-    <t>쌍커풀수술? 쌍수정보? 최초 공개합니다. +어릴적사진 공개  [미트]</t>
-  </si>
-  <si>
-    <t>바보사랑? 텐바이텐? 어디가 더 좋아요? 다이어리추천🍇 6공다이어리 장점/다꾸용품/떡메모지/마스킹테이프 [미트]</t>
-  </si>
-  <si>
-    <t>2019 다이아tv 신년회를 점령해버렸다 낄낄😎 /소근커플, 제이제이님, 01커플, 시니님, 조섭님, 꽈뚜룹님 등 만났다!  [미트]</t>
-  </si>
-  <si>
-    <t>고3, 혼자 기차여행 여수 당일치기 vlog🌊 집에 못 갈 뻔😂/이순신광장/바게트버거/여수당/하멜등대/낭만포차/빅오쇼 [미트]</t>
-  </si>
-  <si>
-    <t>텐션주의ㅋㅋㅋ 언니랑 오락실 뿌시기 vlog!! 리듬게임/댄스러쉬/유비트 [미트]</t>
-  </si>
-  <si>
-    <t>실기 끝나고 남사친과 차이나타운&amp;한강 먹방 vlog🎋 두 발 자전거 도전🔥터키 아이스크림/인천/홍두병/양꼬치/월병/펑리수/치킨 [미트]</t>
-  </si>
-  <si>
-    <t>대학교 실기 시험 GRWM&amp;VLOG🔥실기후기/면접준비/유의사항/꿀팁/메이크업/의상/엽떡/수플레 팬케이크/건대입구 [미트]</t>
-  </si>
-  <si>
-    <t>[필독] 슬라임에서 독성물질 또 발견? 그럼 집에서 만들면 안전할까? 논란 되는 성분, 가습기 유해 성분, 리콜 대상 슬라임 정리해서 알려드립니다 [미트]</t>
-  </si>
-  <si>
-    <t>왕창 질렀다! 빙고빙고&amp;요니팝 슬라임 재료 하울🎀 [미트]</t>
-  </si>
-  <si>
     <t>8:18</t>
   </si>
   <si>
@@ -503,6 +269,14 @@
   </si>
   <si>
     <t>12:13</t>
+  </si>
+  <si>
+    <t>일상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독자 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -564,13 +338,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -911,15 +699,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,16 +732,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
       </c>
       <c r="D2">
         <v>123176</v>
@@ -968,18 +759,21 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
       </c>
       <c r="D3">
         <v>42928</v>
@@ -994,18 +788,21 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
       </c>
       <c r="D4">
         <v>236364</v>
@@ -1020,18 +817,21 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
       </c>
       <c r="D5">
         <v>99451</v>
@@ -1046,18 +846,21 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
       </c>
       <c r="D6">
         <v>284596</v>
@@ -1072,18 +875,21 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
       </c>
       <c r="D7">
         <v>17416</v>
@@ -1098,18 +904,21 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
       </c>
       <c r="D8">
         <v>68840</v>
@@ -1124,18 +933,21 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.5</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
+      <c r="B9">
         <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
       </c>
       <c r="D9">
         <v>43599</v>
@@ -1150,18 +962,21 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
       </c>
       <c r="D10">
         <v>56236</v>
@@ -1176,18 +991,21 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.5</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
       </c>
       <c r="D11">
         <v>26250</v>
@@ -1202,18 +1020,21 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
       </c>
       <c r="D12">
         <v>22188</v>
@@ -1228,18 +1049,21 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.5</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
       <c r="D13">
         <v>98648</v>
@@ -1254,18 +1078,21 @@
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
       </c>
       <c r="D14">
         <v>68250</v>
@@ -1280,18 +1107,21 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
       </c>
       <c r="D15">
         <v>152512</v>
@@ -1306,18 +1136,21 @@
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
       </c>
       <c r="D16">
         <v>49569</v>
@@ -1332,18 +1165,21 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.5</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
       </c>
       <c r="D17">
         <v>205348</v>
@@ -1358,18 +1194,21 @@
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
       </c>
       <c r="D18">
         <v>75009</v>
@@ -1384,18 +1223,21 @@
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.5</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
       </c>
       <c r="D19">
         <v>70618</v>
@@ -1410,18 +1252,21 @@
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
       </c>
       <c r="D20">
         <v>72414</v>
@@ -1436,18 +1281,21 @@
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.5</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
       </c>
       <c r="D21">
         <v>57659</v>
@@ -1462,18 +1310,21 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
       </c>
       <c r="D22">
         <v>22876</v>
@@ -1488,18 +1339,21 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
       </c>
       <c r="D23">
         <v>262870</v>
@@ -1514,18 +1368,21 @@
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.5</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
       </c>
       <c r="D24">
         <v>62365</v>
@@ -1540,18 +1397,21 @@
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3.5</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
       </c>
       <c r="D25">
         <v>61403</v>
@@ -1566,18 +1426,21 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.5</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
       </c>
       <c r="D26">
         <v>91570</v>
@@ -1592,18 +1455,21 @@
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3.5</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
       </c>
       <c r="D27">
         <v>63495</v>
@@ -1618,18 +1484,21 @@
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.5</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
       </c>
       <c r="D28">
         <v>28471</v>
@@ -1644,18 +1513,21 @@
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I28">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3.5</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
       </c>
       <c r="D29">
         <v>100812</v>
@@ -1670,18 +1542,21 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I29">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
       </c>
       <c r="D30">
         <v>44761</v>
@@ -1696,18 +1571,21 @@
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I30">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.5</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
       </c>
       <c r="D31">
         <v>61047</v>
@@ -1722,18 +1600,21 @@
         <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I31">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.5</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
       </c>
       <c r="D32">
         <v>77892</v>
@@ -1748,18 +1629,21 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I32">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.5</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
       </c>
       <c r="D33">
         <v>62936</v>
@@ -1774,18 +1658,21 @@
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I33">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.5</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
       </c>
       <c r="D34">
         <v>138060</v>
@@ -1800,18 +1687,21 @@
         <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I34">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.5</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
       </c>
       <c r="D35">
         <v>336188</v>
@@ -1826,18 +1716,21 @@
         <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2.5</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
       </c>
       <c r="D36">
         <v>68595</v>
@@ -1852,18 +1745,21 @@
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I36">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2.5</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
       </c>
       <c r="D37">
         <v>83521</v>
@@ -1878,18 +1774,21 @@
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2.5</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
+      <c r="B38">
         <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
       </c>
       <c r="D38">
         <v>321857</v>
@@ -1904,18 +1803,21 @@
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I38">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2.5</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
       </c>
       <c r="D39">
         <v>69272</v>
@@ -1930,18 +1832,21 @@
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I39">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.5</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
       </c>
       <c r="D40">
         <v>61306</v>
@@ -1956,18 +1861,21 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I40">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.5</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
       </c>
       <c r="D41">
         <v>25482</v>
@@ -1982,18 +1890,21 @@
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I41">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.5</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
       </c>
       <c r="D42">
         <v>81818</v>
@@ -2008,18 +1919,21 @@
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I42">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.5</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
       </c>
       <c r="D43">
         <v>58446</v>
@@ -2034,18 +1948,21 @@
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="I43">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
       </c>
       <c r="D44">
         <v>45040</v>
@@ -2060,18 +1977,21 @@
         <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I44">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.5</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
       </c>
       <c r="D45">
         <v>46999</v>
@@ -2086,18 +2006,21 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I45">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.5</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
       </c>
       <c r="D46">
         <v>39611</v>
@@ -2112,18 +2035,21 @@
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.5</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
       </c>
       <c r="D47">
         <v>24537</v>
@@ -2138,18 +2064,21 @@
         <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I47">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.5</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
       </c>
       <c r="D48">
         <v>31119</v>
@@ -2164,18 +2093,21 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I48">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.5</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
       </c>
       <c r="D49">
         <v>25575</v>
@@ -2190,18 +2122,21 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I49">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1.5</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
       </c>
       <c r="D50">
         <v>22786</v>
@@ -2216,18 +2151,21 @@
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I50">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.5</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
       </c>
       <c r="D51">
         <v>25655</v>
@@ -2242,18 +2180,21 @@
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="I51">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.5</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
       </c>
       <c r="D52">
         <v>148036</v>
@@ -2268,18 +2209,21 @@
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I52">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.5</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
       </c>
       <c r="D53">
         <v>45794</v>
@@ -2294,18 +2238,21 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I53">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2.5</v>
       </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>83</v>
       </c>
       <c r="D54">
         <v>61636</v>
@@ -2320,18 +2267,21 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I54">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2.5</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
       </c>
       <c r="D55">
         <v>117976</v>
@@ -2346,18 +2296,21 @@
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I55">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2.5</v>
       </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
       </c>
       <c r="D56">
         <v>453568</v>
@@ -2372,18 +2325,21 @@
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I56">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2.5</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>83</v>
       </c>
       <c r="D57">
         <v>164376</v>
@@ -2398,18 +2354,21 @@
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I57">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2.5</v>
       </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
       </c>
       <c r="D58">
         <v>76580</v>
@@ -2424,18 +2383,21 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I58">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.5</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>83</v>
       </c>
       <c r="D59">
         <v>101217</v>
@@ -2450,18 +2412,21 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I59">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.5</v>
       </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>83</v>
       </c>
       <c r="D60">
         <v>29811</v>
@@ -2476,18 +2441,21 @@
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I60">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
       </c>
       <c r="D61">
         <v>48233</v>
@@ -2502,18 +2470,21 @@
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I61">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3.5</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
       </c>
       <c r="D62">
         <v>50202</v>
@@ -2528,18 +2499,21 @@
         <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I62">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2.5</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
       </c>
       <c r="D63">
         <v>152937</v>
@@ -2554,18 +2528,21 @@
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I63">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2.5</v>
       </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
       </c>
       <c r="D64">
         <v>48687</v>
@@ -2580,18 +2557,21 @@
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="I64">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3.5</v>
       </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>83</v>
       </c>
       <c r="D65">
         <v>78751</v>
@@ -2606,18 +2586,21 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I65">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1.5</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>83</v>
       </c>
       <c r="D66">
         <v>449710</v>
@@ -2632,18 +2615,21 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="I66">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2.5</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
       </c>
       <c r="D67">
         <v>68004</v>
@@ -2658,18 +2644,21 @@
         <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I67">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2.5</v>
       </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>83</v>
       </c>
       <c r="D68">
         <v>199269</v>
@@ -2684,18 +2673,21 @@
         <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I68">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.5</v>
       </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>83</v>
       </c>
       <c r="D69">
         <v>7472510</v>
@@ -2710,18 +2702,21 @@
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I69">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3.5</v>
       </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>83</v>
       </c>
       <c r="D70">
         <v>192254</v>
@@ -2736,18 +2731,21 @@
         <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="I70">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2.5</v>
       </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
       </c>
       <c r="D71">
         <v>106637</v>
@@ -2762,18 +2760,21 @@
         <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="I71">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2.5</v>
       </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
       </c>
       <c r="D72">
         <v>91031</v>
@@ -2788,18 +2789,21 @@
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I72">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3.5</v>
       </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
       </c>
       <c r="D73">
         <v>22987</v>
@@ -2814,18 +2818,21 @@
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I73">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2.5</v>
       </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
       </c>
       <c r="D74">
         <v>69166</v>
@@ -2840,18 +2847,21 @@
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="I74">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2.5</v>
       </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
       </c>
       <c r="D75">
         <v>41315</v>
@@ -2866,18 +2876,21 @@
         <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="I75">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2.5</v>
       </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>83</v>
       </c>
       <c r="D76">
         <v>40182</v>
@@ -2892,18 +2905,21 @@
         <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I76">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2.5</v>
       </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>83</v>
       </c>
       <c r="D77">
         <v>193539</v>
@@ -2918,18 +2934,21 @@
         <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I77">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2.5</v>
       </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
       </c>
       <c r="D78">
         <v>25517</v>
@@ -2944,18 +2963,21 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I78">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1.5</v>
       </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
       </c>
       <c r="D79">
         <v>20964</v>
@@ -2970,7 +2992,10 @@
         <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>160</v>
+        <v>82</v>
+      </c>
+      <c r="I79">
+        <v>380000</v>
       </c>
     </row>
   </sheetData>
